--- a/biology/Botanique/Georges_Sutra_de_Germa/Georges_Sutra_de_Germa.xlsx
+++ b/biology/Botanique/Georges_Sutra_de_Germa/Georges_Sutra_de_Germa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Georges Sutra de Germa, né le 14 janvier 1930 à Béziers (Hérault) et mort le 13 février 1995 à Montpellier[1], est un homme politique français, engagé dans la construction européenne. Viticulteur à Pézenas au domaine de Monplezy, il a défendu ce secteur clé de l'activité économique du Languedoc et des pays de l'Europe du Sud.
+Georges Sutra de Germa, né le 14 janvier 1930 à Béziers (Hérault) et mort le 13 février 1995 à Montpellier, est un homme politique français, engagé dans la construction européenne. Viticulteur à Pézenas au domaine de Monplezy, il a défendu ce secteur clé de l'activité économique du Languedoc et des pays de l'Europe du Sud.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Georges Sutra de Germa s'est beaucoup investi dans la viticulture et la vie rurale. Fils de viticulteur, il réussit à transmettre à ses enfants la passion de la culture viticole.
 Membre du Parti Socialiste et député européen à la création du parlement européen à Strasbourg. Il rédige un rapport sur la viticulture sur le pourtour de la Méditerranée à la demande de François Mitterrand.
@@ -546,7 +560,9 @@
           <t>Détail des fonctions et des mandats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Mandats parlementaires
 17 juillet 1979 - 23 juillet 1984 : Député européen
@@ -578,7 +594,9 @@
           <t>Hommage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Une rue à Pézenas et une autre à Montpellier portent son nom en sa mémoire.
 </t>
